--- a/Altium-library.xlsx
+++ b/Altium-library.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Altium-Library\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F4155F64-CB62-4341-90D7-55CC63D7E300}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B94F3AAB-82D7-4DE2-879A-3EC88CEEDFEF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="38640" windowHeight="21120" tabRatio="771" activeTab="3" xr2:uid="{C01531D5-0FFE-4276-86E2-3D80C8EFC4F5}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="38640" windowHeight="21120" tabRatio="771" activeTab="7" xr2:uid="{C01531D5-0FFE-4276-86E2-3D80C8EFC4F5}"/>
   </bookViews>
   <sheets>
     <sheet name="Capacitors_General" sheetId="1" r:id="rId1"/>
@@ -9350,7 +9350,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{237531C5-FF99-4DE6-90F6-D20DBFB61F6B}">
   <dimension ref="A1:L70"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A22" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+    <sheetView topLeftCell="A22" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
       <selection activeCell="I76" sqref="I76"/>
     </sheetView>
   </sheetViews>
@@ -13246,8 +13246,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{714F4FB9-2DCB-4869-B7AF-00FC94C1C3DC}">
   <dimension ref="A1:N58"/>
   <sheetViews>
-    <sheetView topLeftCell="A25" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="D49" sqref="D49"/>
+    <sheetView tabSelected="1" topLeftCell="A10" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <selection activeCell="I61" sqref="I61"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
